--- a/IMQ_CN.xlsx
+++ b/IMQ_CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhn7/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED3779-4605-0249-B006-263760878703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01F123-C696-3A4E-98B0-BF0A06823106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19580" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="1720" windowWidth="19580" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,18 +178,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,14 +200,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -855,23 +846,39 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -899,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -922,16 +929,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
@@ -939,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -967,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -984,16 +1005,18 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -1010,18 +1033,16 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1044,24 +1065,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1087,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -1104,18 +1141,16 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1143,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1160,16 +1195,18 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1186,16 +1223,18 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -1223,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1240,30 +1279,44 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -1287,126 +1340,16 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
